--- a/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
+++ b/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAknouche\CDA_2210\Exos_CDA_2210\BaseDeDonnees\Exo_Merise\ExoMerise2c\1_Biblioteque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{46A9FE76-4AF3-427C-9648-6A74C755D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E08E8A-9D70-435D-8021-D30FC7900E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Entités</t>
   </si>
@@ -110,15 +110,9 @@
     <t>Clients</t>
   </si>
   <si>
-    <t>Client_num_ad</t>
-  </si>
-  <si>
     <t>Numéro d’adhérent unique au client</t>
   </si>
   <si>
-    <t>VARCHAR (50)</t>
-  </si>
-  <si>
     <t>Client_nom</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
   </si>
   <si>
     <t>Montant de la caution versée par le client</t>
-  </si>
-  <si>
-    <t>DECIMAL (3,3)</t>
   </si>
   <si>
     <t>Emprunts</t>
@@ -182,11 +173,86 @@
   <si>
     <t>Le prenom de l’auteur du livre</t>
   </si>
+  <si>
+    <t>DECIMAL (5,3)</t>
+  </si>
+  <si>
+    <t>obligatoire, &gt;0</t>
+  </si>
+  <si>
+    <t>Client_num_id</t>
+  </si>
+  <si>
+    <t>INT (11)</t>
+  </si>
+  <si>
+    <t>VARCHAR (100)</t>
+  </si>
+  <si>
+    <t>adresse_id</t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>identifiant, A.I</t>
+  </si>
+  <si>
+    <t>adresse_numero</t>
+  </si>
+  <si>
+    <t>INT(5)</t>
+  </si>
+  <si>
+    <t>adresse_extension</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>Facultatif</t>
+  </si>
+  <si>
+    <t>adresse_voie</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>adresse_complement</t>
+  </si>
+  <si>
+    <t>adresse_ville</t>
+  </si>
+  <si>
+    <t>adresse_code_postal</t>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+  </si>
+  <si>
+    <t>adresses</t>
+  </si>
+  <si>
+    <t>auteur_id</t>
+  </si>
+  <si>
+    <t>editeur_id</t>
+  </si>
+  <si>
+    <t>editeur_nom</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>editeurs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +300,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -409,58 +481,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,14 +667,96 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,299 +1071,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B23" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C23" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E23" s="37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15" t="s">
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E24" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="15" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C25" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E25" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C26" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E26" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="16" t="s">
+    <row r="27" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="E27" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A15:A16"/>
+  <mergeCells count="6">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
+++ b/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAknouche\CDA_2210\Exos_CDA_2210\BaseDeDonnees\Exo_Merise\ExoMerise2c\1_Biblioteque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E08E8A-9D70-435D-8021-D30FC7900E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19034A11-D469-4A80-8828-26DD41FA15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionnaire de donnée" sheetId="1" r:id="rId1"/>
+    <sheet name="Dépendances fonctionnelles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>Entités</t>
   </si>
@@ -62,51 +63,21 @@
     <t>identifiant</t>
   </si>
   <si>
-    <t>Livre_emprunt</t>
-  </si>
-  <si>
-    <t>Livre_rendu</t>
-  </si>
-  <si>
-    <t>Livre_etat</t>
-  </si>
-  <si>
-    <t>Livre_com_etat</t>
-  </si>
-  <si>
     <t>Livre_id</t>
   </si>
   <si>
     <t>Le numéro d’identification du livre</t>
   </si>
   <si>
-    <t>Date du jour où le livre a été empreinte</t>
-  </si>
-  <si>
-    <t>Date du jour où le livre a été rendu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barème qui détermine l’état du livre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commentaire additionnel au barème si une précision est nécessaire </t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>ENUM</t>
-  </si>
-  <si>
     <t>VARCHAR (255)</t>
   </si>
   <si>
     <t>obligatoire</t>
   </si>
   <si>
-    <t>0 état neuf</t>
-  </si>
-  <si>
     <t>Clients</t>
   </si>
   <si>
@@ -149,13 +120,6 @@
     <t>La date où le livre a été rendu</t>
   </si>
   <si>
-    <t>0 état neuf
-1 bon état
-2 abimé
-3 très abimé
-4 à remplacer</t>
-  </si>
-  <si>
     <t>Auteurs</t>
   </si>
   <si>
@@ -247,6 +211,75 @@
   </si>
   <si>
     <t>editeurs</t>
+  </si>
+  <si>
+    <t>facultatif</t>
+  </si>
+  <si>
+    <t>etats</t>
+  </si>
+  <si>
+    <t>emprunt_id</t>
+  </si>
+  <si>
+    <t>identifiant de l'emprunt</t>
+  </si>
+  <si>
+    <t>livre_titre</t>
+  </si>
+  <si>
+    <t>titre du livre</t>
+  </si>
+  <si>
+    <t>livre_achat_date</t>
+  </si>
+  <si>
+    <t>date de l'achat du livre</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>livre_etat_commantaire</t>
+  </si>
+  <si>
+    <t>commantaire sur l'état du livre en complément du libellé.</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>livre_isbn</t>
+  </si>
+  <si>
+    <t>numéro ISBN du livre</t>
+  </si>
+  <si>
+    <t>CHAR (17)</t>
+  </si>
+  <si>
+    <t>obligatoire, unique</t>
+  </si>
+  <si>
+    <t>etat_id</t>
+  </si>
+  <si>
+    <t>identifiant de l'état du livre</t>
+  </si>
+  <si>
+    <t>etat_libelle</t>
+  </si>
+  <si>
+    <t>libellé sur l'état du livre ex: neuf, abimé etc…)</t>
+  </si>
+  <si>
+    <t>DICTIONNAIRE DE DONNÉE</t>
+  </si>
+  <si>
+    <t>Dépendances fonctionnelles</t>
+  </si>
+  <si>
+    <t>client_id</t>
   </si>
 </sst>
 </file>
@@ -281,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -622,11 +661,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,6 +743,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -670,94 +839,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1235,15 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+    </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -1105,383 +1262,470 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
+      <c r="A3" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>63</v>
+      <c r="A8" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="E14" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
+      <c r="E25" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B33" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E33" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="36"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="37" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51"/>
+      <c r="B34" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="36" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A30:A31"/>
+  <mergeCells count="9">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E1C734-1D85-4F4E-8D0A-7189F13987F2}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
+++ b/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAknouche\CDA_2210\Exos_CDA_2210\BaseDeDonnees\Exo_Merise\ExoMerise2c\1_Biblioteque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matha\Clone_CDA_2210\Exos_CDA_2210\BaseDeDonnees\Exo_Merise\ExoMerise2c\1_Biblioteque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19034A11-D469-4A80-8828-26DD41FA15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B334D21-2C9A-4840-B147-27DE0960E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de donnée" sheetId="1" r:id="rId1"/>
     <sheet name="Dépendances fonctionnelles" sheetId="2" r:id="rId2"/>
+    <sheet name="Règles de gestion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>Entités</t>
   </si>
@@ -280,6 +281,60 @@
   </si>
   <si>
     <t>client_id</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>clilent_nom, client_prenom, client_caution, adresse_id</t>
+  </si>
+  <si>
+    <t>adresse_numero, adresse_extension, adresse_voie, adresse_complement, adresse_ville, adresse_code_postal</t>
+  </si>
+  <si>
+    <t>emprunt_date, emprunt_date_retour, client_id, livre_id</t>
+  </si>
+  <si>
+    <t>auteur_nom, auteur_prenom</t>
+  </si>
+  <si>
+    <t>livre_id</t>
+  </si>
+  <si>
+    <t>livre_titre, livre_date_achat, livre_etat_commentaire, livre_isbn, etat_id</t>
+  </si>
+  <si>
+    <t>Règles de gestion</t>
+  </si>
+  <si>
+    <t>1 client habite à 1 seule adresse</t>
+  </si>
+  <si>
+    <t>1 adresse est habitée par 1 ou plusieurs clients</t>
+  </si>
+  <si>
+    <t>1 emprunt concerne 1 livre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 livre est concerné par 0 ou plusieurs emprunts </t>
+  </si>
+  <si>
+    <t>1 emprunt concerne 1 client</t>
+  </si>
+  <si>
+    <t>1 client est concerné par 0 ou plusieurs emprunts</t>
+  </si>
+  <si>
+    <t>1 auteur écrit 0 ou plusieurs livres</t>
+  </si>
+  <si>
+    <t>1 livre est écrit par 1 ou plusieurs auteurs</t>
+  </si>
+  <si>
+    <t>1 livre est qualifié par 1 seul état</t>
+  </si>
+  <si>
+    <t>1 état qualifie 0 ou plusieurs livres</t>
   </si>
 </sst>
 </file>
@@ -346,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -707,11 +762,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,6 +873,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -836,76 +952,54 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
@@ -1236,13 +1330,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1262,7 +1356,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1279,7 +1373,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1388,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1403,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1331,7 +1425,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1346,7 +1440,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1453,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
@@ -1372,7 +1466,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
@@ -1385,7 +1479,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
@@ -1398,7 +1492,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
@@ -1411,7 +1505,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="16" t="s">
         <v>50</v>
       </c>
@@ -1431,24 +1525,24 @@
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1463,7 +1557,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1579,7 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1500,7 +1594,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1609,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -1530,14 +1624,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -1552,7 +1646,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="17" t="s">
         <v>55</v>
       </c>
@@ -1565,17 +1659,17 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -1589,71 +1683,71 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="57" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="58" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="59" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="35" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -1667,8 +1761,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="36" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="29" t="s">
@@ -1681,12 +1775,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
+    <row r="36" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1707,25 +1801,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E1C734-1D85-4F4E-8D0A-7189F13987F2}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="71"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="71"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="71"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7377B6A4-12C9-4772-ADCF-B7A6B4222A4F}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
+++ b/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matha\Clone_CDA_2210\Exos_CDA_2210\BaseDeDonnees\Exo_Merise\ExoMerise2c\1_Biblioteque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAknouche\CDA_2210\Exos_CDA_2210\BaseDeDonnees\Exo_Merise\ExoMerise2c\1_Biblioteque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B334D21-2C9A-4840-B147-27DE0960E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A15C2-24C5-406D-A284-FE7E7763C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de donnée" sheetId="1" r:id="rId1"/>
     <sheet name="Dépendances fonctionnelles" sheetId="2" r:id="rId2"/>
     <sheet name="Règles de gestion" sheetId="3" r:id="rId3"/>
+    <sheet name="MLD" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="157">
   <si>
     <t>Entités</t>
   </si>
@@ -335,13 +336,187 @@
   </si>
   <si>
     <t>1 état qualifie 0 ou plusieurs livres</t>
+  </si>
+  <si>
+    <t>CREATE TABLE adresses(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_id INT IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_num SMALLINT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_extension VARCHAR(10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_voie VARCHAR(10) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_complement VARCHAR(50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_ville VARCHAR(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_code_postal NVARCHAR(5) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(adresse_id)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE editeurs(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   editeur_id INT IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   editeur_nom VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(editeur_id)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE auteurs(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   auteur_id INT IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   auteur_nom VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   auteur_prenom VARCHAR(100),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(auteur_id)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE etats_livres(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   etat_livre_id INT IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   etat_livre_description VARCHAR(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(etat_livre_id)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE clients(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   client_id INT IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   client_nom VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   client_prenom VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   client_caution DECIMAL(5,2) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   adresse_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(client_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOREIGN KEY(adresse_id) REFERENCES adresses(adresse_id)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE livres(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   livre_id INT IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   livre_titre VARCHAR(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   livre_date_achat DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   livre_etat_commentaire VARCHAR(max),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   livre_isbn CHAR(17) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   editeur_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   etat_livre_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(livre_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOREIGN KEY(editeur_id) REFERENCES editeurs(editeur_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOREIGN KEY(etat_livre_id) REFERENCES etats_livres(etat_livre_id)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE emprunts(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   emprunt_id INT IDENTITY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   emprunt_date DATETIME2 NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   emprunt_date_retour DATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   livre_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   client_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(emprunt_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOREIGN KEY(livre_id) REFERENCES livres(livre_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOREIGN KEY(client_id) REFERENCES clients(client_id)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE écrire(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   auteur_id INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   livre_id INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PRIMARY KEY(auteur_id, livre_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOREIGN KEY(auteur_id) REFERENCES auteurs(auteur_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOREIGN KEY(livre_id) REFERENCES livres(livre_id)</t>
+  </si>
+  <si>
+    <t>facultatif , &gt; date-emp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +539,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -777,11 +959,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,98 +1212,122 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,6 +1344,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751163</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>90265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C8C76F-8770-E260-F73B-21192915217F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171449" y="5562600"/>
+          <a:ext cx="10485714" cy="5247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>746399</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>115384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786708F5-5F6C-C181-074E-4559D1A3DCB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="147637" y="95250"/>
+          <a:ext cx="10504762" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,13 +1752,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1356,7 +1778,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1373,7 +1795,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1810,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1825,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1425,7 +1847,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="61" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1440,7 +1862,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1453,7 +1875,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
@@ -1466,7 +1888,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
@@ -1479,7 +1901,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
@@ -1492,7 +1914,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
@@ -1505,7 +1927,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="16" t="s">
         <v>50</v>
       </c>
@@ -1525,7 +1947,7 @@
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="67" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -1542,7 +1964,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1556,8 +1978,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
+    <row r="18" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
       <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1990,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1579,7 +2001,7 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1594,7 +2016,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +2031,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -1631,7 +2053,7 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="59" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -1646,7 +2068,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="17" t="s">
         <v>55</v>
       </c>
@@ -1666,7 +2088,7 @@
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="35" t="s">
@@ -1683,7 +2105,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="38" t="s">
         <v>62</v>
       </c>
@@ -1698,7 +2120,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="38" t="s">
         <v>64</v>
       </c>
@@ -1713,7 +2135,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="38" t="s">
         <v>67</v>
       </c>
@@ -1728,7 +2150,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="36" t="s">
         <v>70</v>
       </c>
@@ -1744,7 +2166,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="55" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="35" t="s">
@@ -1761,7 +2183,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="36" t="s">
         <v>76</v>
       </c>
@@ -1776,11 +2198,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1801,160 +2223,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E1C734-1D85-4F4E-8D0A-7189F13987F2}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="59"/>
+    <col min="2" max="2" width="11.42578125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="71"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="72"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="71"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="71"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1963,134 +2395,948 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7377B6A4-12C9-4772-ADCF-B7A6B4222A4F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="73"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="73"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF2160E-8CF9-4852-9CA4-09A9343B35B2}">
+  <dimension ref="Q3:W74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="23" width="11.42578125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q3" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+    </row>
+    <row r="4" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q4" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+    </row>
+    <row r="5" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q5" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+    </row>
+    <row r="6" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q6" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+    </row>
+    <row r="7" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q7" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+    </row>
+    <row r="8" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q8" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+    </row>
+    <row r="9" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q9" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+    </row>
+    <row r="10" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+    </row>
+    <row r="11" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q11" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+    </row>
+    <row r="12" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q12" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+    </row>
+    <row r="13" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+    </row>
+    <row r="14" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q14" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+    </row>
+    <row r="15" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q15" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+    </row>
+    <row r="16" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q16" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+    </row>
+    <row r="17" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q17" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+    </row>
+    <row r="18" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q18" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+    </row>
+    <row r="19" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+    </row>
+    <row r="20" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q20" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+    </row>
+    <row r="21" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q21" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+    </row>
+    <row r="22" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q22" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+    </row>
+    <row r="23" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q23" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+    </row>
+    <row r="24" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q24" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+    </row>
+    <row r="25" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q25" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+    </row>
+    <row r="26" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+    </row>
+    <row r="27" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q27" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+    </row>
+    <row r="28" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q28" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+    </row>
+    <row r="29" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q29" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+    </row>
+    <row r="30" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q30" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+    </row>
+    <row r="31" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q31" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+    </row>
+    <row r="32" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+    </row>
+    <row r="33" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q33" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+    </row>
+    <row r="34" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q34" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+    </row>
+    <row r="35" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q35" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+    </row>
+    <row r="36" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q36" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+    </row>
+    <row r="37" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q37" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+    </row>
+    <row r="38" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q38" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+    </row>
+    <row r="39" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q39" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+    </row>
+    <row r="40" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q40" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+    </row>
+    <row r="41" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q41" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+    </row>
+    <row r="42" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+    </row>
+    <row r="43" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q43" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="R43" s="91"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="91"/>
+    </row>
+    <row r="44" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q44" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
+      <c r="W44" s="91"/>
+    </row>
+    <row r="45" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q45" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="R45" s="91"/>
+      <c r="S45" s="91"/>
+      <c r="T45" s="91"/>
+      <c r="U45" s="91"/>
+      <c r="V45" s="91"/>
+      <c r="W45" s="91"/>
+    </row>
+    <row r="46" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q46" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+    </row>
+    <row r="47" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q47" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="R47" s="91"/>
+      <c r="S47" s="91"/>
+      <c r="T47" s="91"/>
+      <c r="U47" s="91"/>
+      <c r="V47" s="91"/>
+      <c r="W47" s="91"/>
+    </row>
+    <row r="48" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q48" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="R48" s="91"/>
+      <c r="S48" s="91"/>
+      <c r="T48" s="91"/>
+      <c r="U48" s="91"/>
+      <c r="V48" s="91"/>
+      <c r="W48" s="91"/>
+    </row>
+    <row r="49" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q49" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="R49" s="91"/>
+      <c r="S49" s="91"/>
+      <c r="T49" s="91"/>
+      <c r="U49" s="91"/>
+      <c r="V49" s="91"/>
+      <c r="W49" s="91"/>
+    </row>
+    <row r="50" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q50" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="91"/>
+    </row>
+    <row r="51" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q51" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="91"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="91"/>
+    </row>
+    <row r="52" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q52" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="R52" s="91"/>
+      <c r="S52" s="91"/>
+      <c r="T52" s="91"/>
+      <c r="U52" s="91"/>
+      <c r="V52" s="91"/>
+      <c r="W52" s="91"/>
+    </row>
+    <row r="53" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q53" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="R53" s="91"/>
+      <c r="S53" s="91"/>
+      <c r="T53" s="91"/>
+      <c r="U53" s="91"/>
+      <c r="V53" s="91"/>
+      <c r="W53" s="91"/>
+    </row>
+    <row r="54" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q54" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R54" s="91"/>
+      <c r="S54" s="91"/>
+      <c r="T54" s="91"/>
+      <c r="U54" s="91"/>
+      <c r="V54" s="91"/>
+      <c r="W54" s="91"/>
+    </row>
+    <row r="55" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q55" s="91"/>
+      <c r="R55" s="91"/>
+      <c r="S55" s="91"/>
+      <c r="T55" s="91"/>
+      <c r="U55" s="91"/>
+      <c r="V55" s="91"/>
+      <c r="W55" s="91"/>
+    </row>
+    <row r="56" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q56" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="R56" s="91"/>
+      <c r="S56" s="91"/>
+      <c r="T56" s="91"/>
+      <c r="U56" s="91"/>
+      <c r="V56" s="91"/>
+      <c r="W56" s="91"/>
+    </row>
+    <row r="57" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q57" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="R57" s="91"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
+    </row>
+    <row r="58" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q58" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="R58" s="91"/>
+      <c r="S58" s="91"/>
+      <c r="T58" s="91"/>
+      <c r="U58" s="91"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
+    </row>
+    <row r="59" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q59" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="R59" s="91"/>
+      <c r="S59" s="91"/>
+      <c r="T59" s="91"/>
+      <c r="U59" s="91"/>
+      <c r="V59" s="91"/>
+      <c r="W59" s="91"/>
+    </row>
+    <row r="60" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q60" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="R60" s="91"/>
+      <c r="S60" s="91"/>
+      <c r="T60" s="91"/>
+      <c r="U60" s="91"/>
+      <c r="V60" s="91"/>
+      <c r="W60" s="91"/>
+    </row>
+    <row r="61" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q61" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="R61" s="91"/>
+      <c r="S61" s="91"/>
+      <c r="T61" s="91"/>
+      <c r="U61" s="91"/>
+      <c r="V61" s="91"/>
+      <c r="W61" s="91"/>
+    </row>
+    <row r="62" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q62" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="R62" s="91"/>
+      <c r="S62" s="91"/>
+      <c r="T62" s="91"/>
+      <c r="U62" s="91"/>
+      <c r="V62" s="91"/>
+      <c r="W62" s="91"/>
+    </row>
+    <row r="63" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q63" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="R63" s="91"/>
+      <c r="S63" s="91"/>
+      <c r="T63" s="91"/>
+      <c r="U63" s="91"/>
+      <c r="V63" s="91"/>
+      <c r="W63" s="91"/>
+    </row>
+    <row r="64" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q64" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="R64" s="91"/>
+      <c r="S64" s="91"/>
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="91"/>
+      <c r="W64" s="91"/>
+    </row>
+    <row r="65" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q65" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R65" s="91"/>
+      <c r="S65" s="91"/>
+      <c r="T65" s="91"/>
+      <c r="U65" s="91"/>
+      <c r="V65" s="91"/>
+      <c r="W65" s="91"/>
+    </row>
+    <row r="66" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q66" s="91"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="91"/>
+      <c r="T66" s="91"/>
+      <c r="U66" s="91"/>
+      <c r="V66" s="91"/>
+      <c r="W66" s="91"/>
+    </row>
+    <row r="67" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q67" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="91"/>
+      <c r="V67" s="91"/>
+      <c r="W67" s="91"/>
+    </row>
+    <row r="68" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q68" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="R68" s="91"/>
+      <c r="S68" s="91"/>
+      <c r="T68" s="91"/>
+      <c r="U68" s="91"/>
+      <c r="V68" s="91"/>
+      <c r="W68" s="91"/>
+    </row>
+    <row r="69" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q69" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="R69" s="91"/>
+      <c r="S69" s="91"/>
+      <c r="T69" s="91"/>
+      <c r="U69" s="91"/>
+      <c r="V69" s="91"/>
+      <c r="W69" s="91"/>
+    </row>
+    <row r="70" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q70" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+      <c r="W70" s="91"/>
+    </row>
+    <row r="71" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q71" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="R71" s="91"/>
+      <c r="S71" s="91"/>
+      <c r="T71" s="91"/>
+      <c r="U71" s="91"/>
+      <c r="V71" s="91"/>
+      <c r="W71" s="91"/>
+    </row>
+    <row r="72" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q72" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="91"/>
+      <c r="U72" s="91"/>
+      <c r="V72" s="91"/>
+      <c r="W72" s="91"/>
+    </row>
+    <row r="73" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q73" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R73" s="91"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="91"/>
+      <c r="V73" s="91"/>
+      <c r="W73" s="91"/>
+    </row>
+    <row r="74" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="91"/>
+      <c r="W74" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
+++ b/BaseDeDonnees/Exo_Merise/ExoMerise2c/1_Biblioteque/BDD_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAknouche\CDA_2210\Exos_CDA_2210\BaseDeDonnees\Exo_Merise\ExoMerise2c\1_Biblioteque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A15C2-24C5-406D-A284-FE7E7763C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5876A3-E62F-4110-85C9-1DCA70B2688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,7 +1211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,65 +1235,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1317,6 +1259,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,9 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,7 +1724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1736,29 +1732,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1778,7 +1774,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1795,7 +1791,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1810,7 +1806,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
@@ -1825,7 +1821,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1847,7 +1843,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1862,7 +1858,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1875,7 +1871,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
@@ -1888,7 +1884,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
@@ -1901,7 +1897,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
@@ -1914,7 +1910,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1923,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="16" t="s">
         <v>50</v>
       </c>
@@ -1947,7 +1943,7 @@
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="80" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -1964,7 +1960,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1979,7 +1975,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
@@ -2001,7 +1997,7 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="77" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2016,7 +2012,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
@@ -2031,7 +2027,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -2053,7 +2049,7 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="72" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -2068,7 +2064,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="17" t="s">
         <v>55</v>
       </c>
@@ -2088,7 +2084,7 @@
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="35" t="s">
@@ -2105,7 +2101,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="38" t="s">
         <v>62</v>
       </c>
@@ -2120,7 +2116,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="38" t="s">
         <v>64</v>
       </c>
@@ -2135,7 +2131,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="38" t="s">
         <v>67</v>
       </c>
@@ -2150,7 +2146,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="36" t="s">
         <v>70</v>
       </c>
@@ -2166,7 +2162,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="69" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="35" t="s">
@@ -2183,7 +2179,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="36" t="s">
         <v>76</v>
       </c>
@@ -2197,18 +2193,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:E36"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A20:A22"/>
@@ -2231,157 +2219,157 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="43"/>
+    <col min="2" max="2" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="72"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="73"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="52"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="52"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="52"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="52"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="74"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2404,142 +2392,142 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="73"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="51"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2549,790 +2537,790 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF2160E-8CF9-4852-9CA4-09A9343B35B2}">
   <dimension ref="Q3:W74"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="23" width="11.42578125" style="44"/>
+    <col min="17" max="23" width="11.42578125" style="43"/>
   </cols>
   <sheetData>
     <row r="3" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
     </row>
     <row r="4" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
     </row>
     <row r="5" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q5" s="91" t="s">
+      <c r="Q5" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
     </row>
     <row r="6" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q6" s="91" t="s">
+      <c r="Q6" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
     </row>
     <row r="7" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q7" s="91" t="s">
+      <c r="Q7" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
     </row>
     <row r="8" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q8" s="91" t="s">
+      <c r="Q8" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
     </row>
     <row r="9" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q9" s="91" t="s">
+      <c r="Q9" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
     </row>
     <row r="10" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q10" s="91" t="s">
+      <c r="Q10" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
     </row>
     <row r="11" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q11" s="91" t="s">
+      <c r="Q11" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q12" s="91" t="s">
+      <c r="Q12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
     </row>
     <row r="13" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q14" s="91" t="s">
+      <c r="Q14" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
     </row>
     <row r="15" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q15" s="91" t="s">
+      <c r="Q15" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q16" s="91" t="s">
+      <c r="Q16" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q17" s="91" t="s">
+      <c r="Q17" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
     </row>
     <row r="18" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q18" s="91" t="s">
+      <c r="Q18" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
     </row>
     <row r="19" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q20" s="91" t="s">
+      <c r="Q20" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
     </row>
     <row r="21" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q21" s="91" t="s">
+      <c r="Q21" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
     </row>
     <row r="22" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q22" s="91" t="s">
+      <c r="Q22" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
     </row>
     <row r="23" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q23" s="91" t="s">
+      <c r="Q23" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
     </row>
     <row r="24" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q24" s="91" t="s">
+      <c r="Q24" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
     </row>
     <row r="25" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q25" s="91" t="s">
+      <c r="Q25" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
     </row>
     <row r="26" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
     </row>
     <row r="27" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q27" s="91" t="s">
+      <c r="Q27" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
     </row>
     <row r="28" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q28" s="91" t="s">
+      <c r="Q28" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
     </row>
     <row r="29" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q29" s="91" t="s">
+      <c r="Q29" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
     </row>
     <row r="30" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q30" s="91" t="s">
+      <c r="Q30" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
     </row>
     <row r="31" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q31" s="91" t="s">
+      <c r="Q31" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
     </row>
     <row r="32" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
     </row>
     <row r="33" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q33" s="91" t="s">
+      <c r="Q33" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
     </row>
     <row r="34" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q34" s="91" t="s">
+      <c r="Q34" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
     </row>
     <row r="35" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
     </row>
     <row r="36" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q36" s="91" t="s">
+      <c r="Q36" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="91"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
     </row>
     <row r="37" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q37" s="91" t="s">
+      <c r="Q37" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
     </row>
     <row r="38" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q38" s="91" t="s">
+      <c r="Q38" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
     </row>
     <row r="39" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q39" s="91" t="s">
+      <c r="Q39" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
     </row>
     <row r="40" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q40" s="91" t="s">
+      <c r="Q40" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-      <c r="W40" s="91"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
     </row>
     <row r="41" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q41" s="91" t="s">
+      <c r="Q41" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
     </row>
     <row r="42" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
-      <c r="W42" s="91"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
     </row>
     <row r="43" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q43" s="91" t="s">
+      <c r="Q43" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="R43" s="91"/>
-      <c r="S43" s="91"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
     </row>
     <row r="44" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q44" s="91" t="s">
+      <c r="Q44" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="91"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
     </row>
     <row r="45" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q45" s="91" t="s">
+      <c r="Q45" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91"/>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
     </row>
     <row r="46" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q46" s="91" t="s">
+      <c r="Q46" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91"/>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="91"/>
-      <c r="W46" s="91"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
     </row>
     <row r="47" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q47" s="91" t="s">
+      <c r="Q47" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
     </row>
     <row r="48" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q48" s="91" t="s">
+      <c r="Q48" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="R48" s="91"/>
-      <c r="S48" s="91"/>
-      <c r="T48" s="91"/>
-      <c r="U48" s="91"/>
-      <c r="V48" s="91"/>
-      <c r="W48" s="91"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
     </row>
     <row r="49" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q49" s="91" t="s">
+      <c r="Q49" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="R49" s="91"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="91"/>
-      <c r="U49" s="91"/>
-      <c r="V49" s="91"/>
-      <c r="W49" s="91"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
     </row>
     <row r="50" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q50" s="91" t="s">
+      <c r="Q50" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="R50" s="91"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="91"/>
-      <c r="U50" s="91"/>
-      <c r="V50" s="91"/>
-      <c r="W50" s="91"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
     </row>
     <row r="51" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q51" s="91" t="s">
+      <c r="Q51" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="R51" s="91"/>
-      <c r="S51" s="91"/>
-      <c r="T51" s="91"/>
-      <c r="U51" s="91"/>
-      <c r="V51" s="91"/>
-      <c r="W51" s="91"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="68"/>
     </row>
     <row r="52" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q52" s="91" t="s">
+      <c r="Q52" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="R52" s="91"/>
-      <c r="S52" s="91"/>
-      <c r="T52" s="91"/>
-      <c r="U52" s="91"/>
-      <c r="V52" s="91"/>
-      <c r="W52" s="91"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="68"/>
     </row>
     <row r="53" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q53" s="91" t="s">
+      <c r="Q53" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="R53" s="91"/>
-      <c r="S53" s="91"/>
-      <c r="T53" s="91"/>
-      <c r="U53" s="91"/>
-      <c r="V53" s="91"/>
-      <c r="W53" s="91"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
     </row>
     <row r="54" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q54" s="91" t="s">
+      <c r="Q54" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R54" s="91"/>
-      <c r="S54" s="91"/>
-      <c r="T54" s="91"/>
-      <c r="U54" s="91"/>
-      <c r="V54" s="91"/>
-      <c r="W54" s="91"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
     </row>
     <row r="55" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q55" s="91"/>
-      <c r="R55" s="91"/>
-      <c r="S55" s="91"/>
-      <c r="T55" s="91"/>
-      <c r="U55" s="91"/>
-      <c r="V55" s="91"/>
-      <c r="W55" s="91"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
     </row>
     <row r="56" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q56" s="91" t="s">
+      <c r="Q56" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="R56" s="91"/>
-      <c r="S56" s="91"/>
-      <c r="T56" s="91"/>
-      <c r="U56" s="91"/>
-      <c r="V56" s="91"/>
-      <c r="W56" s="91"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
     </row>
     <row r="57" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q57" s="91" t="s">
+      <c r="Q57" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="R57" s="91"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
     </row>
     <row r="58" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q58" s="91" t="s">
+      <c r="Q58" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="R58" s="91"/>
-      <c r="S58" s="91"/>
-      <c r="T58" s="91"/>
-      <c r="U58" s="91"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
     </row>
     <row r="59" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q59" s="91" t="s">
+      <c r="Q59" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="R59" s="91"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="91"/>
-      <c r="U59" s="91"/>
-      <c r="V59" s="91"/>
-      <c r="W59" s="91"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
     </row>
     <row r="60" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q60" s="91" t="s">
+      <c r="Q60" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="R60" s="91"/>
-      <c r="S60" s="91"/>
-      <c r="T60" s="91"/>
-      <c r="U60" s="91"/>
-      <c r="V60" s="91"/>
-      <c r="W60" s="91"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
     </row>
     <row r="61" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q61" s="91" t="s">
+      <c r="Q61" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="R61" s="91"/>
-      <c r="S61" s="91"/>
-      <c r="T61" s="91"/>
-      <c r="U61" s="91"/>
-      <c r="V61" s="91"/>
-      <c r="W61" s="91"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
     </row>
     <row r="62" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q62" s="91" t="s">
+      <c r="Q62" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="R62" s="91"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="91"/>
-      <c r="U62" s="91"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="91"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
     </row>
     <row r="63" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q63" s="91" t="s">
+      <c r="Q63" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="R63" s="91"/>
-      <c r="S63" s="91"/>
-      <c r="T63" s="91"/>
-      <c r="U63" s="91"/>
-      <c r="V63" s="91"/>
-      <c r="W63" s="91"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
     </row>
     <row r="64" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q64" s="91" t="s">
+      <c r="Q64" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="R64" s="91"/>
-      <c r="S64" s="91"/>
-      <c r="T64" s="91"/>
-      <c r="U64" s="91"/>
-      <c r="V64" s="91"/>
-      <c r="W64" s="91"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
     </row>
     <row r="65" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q65" s="91" t="s">
+      <c r="Q65" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R65" s="91"/>
-      <c r="S65" s="91"/>
-      <c r="T65" s="91"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="91"/>
-      <c r="W65" s="91"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
     </row>
     <row r="66" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q66" s="91"/>
-      <c r="R66" s="91"/>
-      <c r="S66" s="91"/>
-      <c r="T66" s="91"/>
-      <c r="U66" s="91"/>
-      <c r="V66" s="91"/>
-      <c r="W66" s="91"/>
+      <c r="Q66" s="68"/>
+      <c r="R66" s="68"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="68"/>
+      <c r="W66" s="68"/>
     </row>
     <row r="67" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q67" s="91" t="s">
+      <c r="Q67" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="R67" s="91"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="91"/>
-      <c r="V67" s="91"/>
-      <c r="W67" s="91"/>
+      <c r="R67" s="68"/>
+      <c r="S67" s="68"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="68"/>
+      <c r="W67" s="68"/>
     </row>
     <row r="68" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q68" s="91" t="s">
+      <c r="Q68" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="R68" s="91"/>
-      <c r="S68" s="91"/>
-      <c r="T68" s="91"/>
-      <c r="U68" s="91"/>
-      <c r="V68" s="91"/>
-      <c r="W68" s="91"/>
+      <c r="R68" s="68"/>
+      <c r="S68" s="68"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="68"/>
+      <c r="W68" s="68"/>
     </row>
     <row r="69" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q69" s="91" t="s">
+      <c r="Q69" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="R69" s="91"/>
-      <c r="S69" s="91"/>
-      <c r="T69" s="91"/>
-      <c r="U69" s="91"/>
-      <c r="V69" s="91"/>
-      <c r="W69" s="91"/>
+      <c r="R69" s="68"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="68"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="68"/>
+      <c r="W69" s="68"/>
     </row>
     <row r="70" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q70" s="91" t="s">
+      <c r="Q70" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="R70" s="91"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="91"/>
-      <c r="U70" s="91"/>
-      <c r="V70" s="91"/>
-      <c r="W70" s="91"/>
+      <c r="R70" s="68"/>
+      <c r="S70" s="68"/>
+      <c r="T70" s="68"/>
+      <c r="U70" s="68"/>
+      <c r="V70" s="68"/>
+      <c r="W70" s="68"/>
     </row>
     <row r="71" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q71" s="91" t="s">
+      <c r="Q71" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="R71" s="91"/>
-      <c r="S71" s="91"/>
-      <c r="T71" s="91"/>
-      <c r="U71" s="91"/>
-      <c r="V71" s="91"/>
-      <c r="W71" s="91"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="68"/>
     </row>
     <row r="72" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q72" s="91" t="s">
+      <c r="Q72" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="91"/>
-      <c r="U72" s="91"/>
-      <c r="V72" s="91"/>
-      <c r="W72" s="91"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="68"/>
+      <c r="W72" s="68"/>
     </row>
     <row r="73" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q73" s="91" t="s">
+      <c r="Q73" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="R73" s="91"/>
-      <c r="S73" s="91"/>
-      <c r="T73" s="91"/>
-      <c r="U73" s="91"/>
-      <c r="V73" s="91"/>
-      <c r="W73" s="91"/>
+      <c r="R73" s="68"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="68"/>
+      <c r="W73" s="68"/>
     </row>
     <row r="74" spans="17:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="91"/>
-      <c r="U74" s="91"/>
-      <c r="V74" s="91"/>
-      <c r="W74" s="91"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
